--- a/FileShare/results/InprecisionTracing.MK.Lenovo.nonEclipse.Sun1.6.-server.-Xint.xlsx
+++ b/FileShare/results/InprecisionTracing.MK.Lenovo.nonEclipse.Sun1.6.-server.-Xint.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Input size</t>
   </si>
@@ -85,6 +85,30 @@
   </si>
   <si>
     <t>compressed {true|false}</t>
+  </si>
+  <si>
+    <t>average ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will serve as </t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Ratio "predicted counts sum divided by real counts sum"</t>
+  </si>
+  <si>
+    <t>Average real execution duration pro real counted instruction</t>
+  </si>
+  <si>
+    <t>File-name</t>
   </si>
   <si>
     <r>
@@ -96,9 +120,33 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>real</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> instruction counts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">total </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">predicted </t>
     </r>
@@ -106,36 +154,162 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t>instruction counts</t>
     </r>
   </si>
   <si>
-    <t>average ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will serve as </t>
-  </si>
-  <si>
-    <t>prediction</t>
-  </si>
-  <si>
-    <t>correction</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>Ratio "predicted counts sum divided by real counts sum"</t>
-  </si>
-  <si>
-    <t>Average real execution duration pro real counted instruction</t>
-  </si>
-  <si>
-    <t>File-name</t>
+    <r>
+      <t xml:space="preserve">total </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>real</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> execution </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">total </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">predicted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">execution </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>duration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ratio "predicted through real execution </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">total </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>predicted and adapted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> execution </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>duration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> using correction factor in cell H23</t>
+    </r>
   </si>
   <si>
     <r>
@@ -147,203 +321,14 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
       </rPr>
       <t>duration</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">total </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>real</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> instruction counts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">total </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>real</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> execution </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">total </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">predicted </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">execution </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">total </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>predicted and adapted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> execution </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> using correction factor in cell H23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ratio "predicted through real execution </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
+    <t>LENOVO</t>
   </si>
 </sst>
 </file>
@@ -355,25 +340,8 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -407,13 +375,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,23 +388,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <strike/>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
@@ -454,6 +398,47 @@
       <strike/>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -581,130 +566,125 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,57 +797,57 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8086015862685907</c:v>
+                  <c:v>0.92616048454919564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7281444589976047</c:v>
+                  <c:v>0.88493904018611147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3544603168517637</c:v>
+                  <c:v>0.69354509253985985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8071621182873581</c:v>
+                  <c:v>0.925373229767113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7743933015399427</c:v>
+                  <c:v>0.90855808368728541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7693659761988605</c:v>
+                  <c:v>0.90595404830547743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7436080048137215</c:v>
+                  <c:v>0.89276662886378844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6557537779038598</c:v>
+                  <c:v>0.84782697095184434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6801231516744191</c:v>
+                  <c:v>0.86025604668417843</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6717612611717121</c:v>
+                  <c:v>0.85596642802966394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="72921856"/>
-        <c:axId val="84849408"/>
+        <c:axId val="70100096"/>
+        <c:axId val="70101632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72921856"/>
+        <c:axId val="70100096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84849408"/>
+        <c:crossAx val="70101632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84849408"/>
+        <c:axId val="70101632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +855,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72921856"/>
+        <c:crossAx val="70100096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -884,7 +864,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -894,9 +874,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -949,61 +926,27 @@
           <c:val>
             <c:numRef>
               <c:f>Lenovo!$K$2:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.91894518877338416</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77666420401577163</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59280129566987916</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90568925254497601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90478648407534457</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84442233484795592</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85533746761489982</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9193622324768953</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84599744436580482</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7287493056971146</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84885888"/>
-        <c:axId val="84887424"/>
+        <c:axId val="80554240"/>
+        <c:axId val="80560128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84885888"/>
+        <c:axId val="80554240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84887424"/>
+        <c:crossAx val="80560128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84887424"/>
+        <c:axId val="80560128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +954,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84885888"/>
+        <c:crossAx val="80554240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1020,7 +963,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1030,9 +973,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1092,62 +1032,28 @@
           <c:val>
             <c:numRef>
               <c:f>Lenovo!$L$2:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.8801023502103349</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5476260715263996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4812925222778439</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8411429742322087</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8909673877394715</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7059470550670519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7814075949449739</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1478899896442125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8550200931066194</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.471689412813912</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84903040"/>
-        <c:axId val="84904576"/>
+        <c:axId val="80583296"/>
+        <c:axId val="80585088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84903040"/>
+        <c:axId val="80583296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84904576"/>
+        <c:crossAx val="80585088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84904576"/>
+        <c:axId val="80585088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1061,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84903040"/>
+        <c:crossAx val="80583296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1164,7 +1070,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1552,953 +1458,955 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="24" customWidth="1"/>
-    <col min="11" max="256" width="15.140625" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="28"/>
+    <col min="3" max="3" width="7.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="16" style="28" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="41" customWidth="1"/>
+    <col min="11" max="12" width="0" style="28" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" ht="165">
+      <c r="A1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" hidden="1">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12" s="38" customFormat="1" ht="15" hidden="1">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="1">
         <v>36747</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="1">
         <v>1044672049</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="3">
         <v>997194850</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="4">
         <v>5342755034</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="12">
         <f>(G2/F2)</f>
         <v>5342755034</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="4">
         <f>G2/$H$23</f>
-        <v>3144022516.3963089</v>
-      </c>
-      <c r="J2" s="23">
+        <v>6140147743.9359322</v>
+      </c>
+      <c r="J2" s="13">
         <f>I2/F2</f>
-        <v>3144022516.3963089</v>
-      </c>
-      <c r="K2" s="39">
+        <v>6140147743.9359322</v>
+      </c>
+      <c r="K2" s="21">
         <f>E2/D2</f>
         <v>0.95455301111439994</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="22">
         <f>F2/D2</f>
         <v>9.5723820787321544E-10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" ht="15" hidden="1">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="5">
         <v>29510</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="5">
         <v>830636499</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>800896643</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="10">
         <v>4290971136</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H21" si="0">(G3/F3)</f>
         <v>4290971136</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="10">
         <f t="shared" ref="I3:I21" si="1">G3/$H$23</f>
-        <v>2525084864.0706458</v>
-      </c>
-      <c r="J3" s="23">
+        <v>4931387752.6364994</v>
+      </c>
+      <c r="J3" s="13">
         <f t="shared" ref="J3:J21" si="2">I3/F3</f>
-        <v>2525084864.0706458</v>
-      </c>
-      <c r="K3" s="41">
+        <v>4931387752.6364994</v>
+      </c>
+      <c r="K3" s="23">
         <f t="shared" ref="K3:K21" si="3">E3/D3</f>
         <v>0.96419630483875474</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="22">
         <f t="shared" ref="L3:L21" si="4">F3/D3</f>
         <v>1.2038960498411713E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" ht="15" hidden="1">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="5">
         <v>44853</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="5">
         <v>1281787103</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <v>1217064028</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="10">
         <v>6520834388</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="11">
         <f t="shared" si="0"/>
         <v>6520834388</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="10">
         <f t="shared" si="1"/>
-        <v>3837280581.1039071</v>
-      </c>
-      <c r="J4" s="30">
+        <v>7494052469.4207888</v>
+      </c>
+      <c r="J4" s="15">
         <f t="shared" si="2"/>
-        <v>3837280581.1039071</v>
-      </c>
-      <c r="K4" s="41">
+        <v>7494052469.4207888</v>
+      </c>
+      <c r="K4" s="23">
         <f t="shared" si="3"/>
         <v>0.94950559664041179</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="22">
         <f t="shared" si="4"/>
         <v>7.8016075966088107E-10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" ht="15" hidden="1">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="5">
         <v>36654</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="5">
         <v>1044543770</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="7">
         <v>994672295</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="10">
         <v>5329238950</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>5329238950</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="10">
         <f t="shared" si="1"/>
-        <v>3136068778.6413345</v>
-      </c>
-      <c r="J5" s="30">
+        <v>6124614418.4977798</v>
+      </c>
+      <c r="J5" s="15">
         <f t="shared" si="2"/>
-        <v>3136068778.6413345</v>
-      </c>
-      <c r="K5" s="41">
+        <v>6124614418.4977798</v>
+      </c>
+      <c r="K5" s="23">
         <f t="shared" si="3"/>
         <v>0.95225525589990356</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="22">
         <f t="shared" si="4"/>
         <v>9.5735576499585081E-10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" ht="15" hidden="1">
+      <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="5">
         <v>20061</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="5">
         <v>539499969</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="7">
         <v>544599593</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="10">
         <v>2917707897</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>2917707897</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="10">
         <f t="shared" si="1"/>
-        <v>1716967981.136775</v>
-      </c>
-      <c r="J6" s="30">
+        <v>3353168439.7321005</v>
+      </c>
+      <c r="J6" s="15">
         <f t="shared" si="2"/>
-        <v>1716967981.136775</v>
-      </c>
-      <c r="K6" s="41">
+        <v>3353168439.7321005</v>
+      </c>
+      <c r="K6" s="23">
         <f t="shared" si="3"/>
         <v>1.0094525010065385</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="22">
         <f t="shared" si="4"/>
         <v>1.8535682251355235E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" ht="15" hidden="1">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="5">
         <v>25149</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="5">
         <v>579673630</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>682607783</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="10">
         <v>3657168513</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>3657168513</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
-        <v>2152114419.986639</v>
-      </c>
-      <c r="J7" s="31">
+        <v>4202991687.1330919</v>
+      </c>
+      <c r="J7" s="16">
         <f t="shared" si="2"/>
-        <v>2152114419.986639</v>
-      </c>
-      <c r="K7" s="41">
+        <v>4202991687.1330919</v>
+      </c>
+      <c r="K7" s="23">
         <f t="shared" si="3"/>
         <v>1.1775725989122534</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="22">
         <f t="shared" si="4"/>
         <v>1.7251086615756526E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" hidden="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:12" ht="15" hidden="1">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="5">
         <v>9578</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="5">
         <v>257943297</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="7">
         <v>260256069</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="10">
         <v>1394169054</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>1394169054</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>820419216.21797895</v>
-      </c>
-      <c r="J8" s="30">
+        <v>1602245268.0512309</v>
+      </c>
+      <c r="J8" s="15">
         <f t="shared" si="2"/>
-        <v>820419216.21797895</v>
-      </c>
-      <c r="K8" s="41">
+        <v>1602245268.0512309</v>
+      </c>
+      <c r="K8" s="23">
         <f t="shared" si="3"/>
         <v>1.0089662031419253</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="22">
         <f t="shared" si="4"/>
         <v>3.8768210363690898E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" ht="15" hidden="1">
+      <c r="A9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="5">
         <v>23230</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="5">
         <v>642753874</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="7">
         <v>630556346</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="10">
         <v>3378272105</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>3378272105</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
-        <v>1987993740.503124</v>
-      </c>
-      <c r="J9" s="30">
+        <v>3882470693.8486681</v>
+      </c>
+      <c r="J9" s="15">
         <f t="shared" si="2"/>
-        <v>1987993740.503124</v>
-      </c>
-      <c r="K9" s="41">
+        <v>3882470693.8486681</v>
+      </c>
+      <c r="K9" s="23">
         <f t="shared" si="3"/>
         <v>0.98102301908490719</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="22">
         <f t="shared" si="4"/>
         <v>1.5558054808394667E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" ht="15" hidden="1">
+      <c r="A10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="5">
         <v>29038</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="5">
         <v>802590392</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="7">
         <v>788093998</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <v>4222373374</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>4222373374</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="10">
         <f t="shared" si="1"/>
-        <v>2484717505.4831929</v>
-      </c>
-      <c r="J10" s="30">
+        <v>4852551947.7188244</v>
+      </c>
+      <c r="J10" s="15">
         <f t="shared" si="2"/>
-        <v>2484717505.4831929</v>
-      </c>
-      <c r="K10" s="41">
+        <v>4852551947.7188244</v>
+      </c>
+      <c r="K10" s="23">
         <f t="shared" si="3"/>
         <v>0.981937992100957</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="22">
         <f t="shared" si="4"/>
         <v>1.2459655759248113E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" ht="15" hidden="1">
+      <c r="A11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="5">
         <v>29423</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="5">
         <v>846072594</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="7">
         <v>798536833</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="10">
         <v>4278327057</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>4278327057</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="10">
         <f t="shared" si="1"/>
-        <v>2517644270.4401846</v>
-      </c>
-      <c r="J11" s="23">
+        <v>4916856576.7446728</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" si="2"/>
-        <v>2517644270.4401846</v>
-      </c>
-      <c r="K11" s="42">
+        <v>4916856576.7446728</v>
+      </c>
+      <c r="K11" s="24">
         <f t="shared" si="3"/>
         <v>0.94381597827762753</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="22">
         <f t="shared" si="4"/>
         <v>1.1819316771298232E-9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="15.75">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:12" s="38" customFormat="1">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>24789</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="1">
         <v>473621694</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <v>435232377</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="17">
         <v>1364078954</v>
       </c>
-      <c r="G12" s="10">
-        <v>2467075360</v>
-      </c>
-      <c r="H12" s="46">
+      <c r="G12" s="44">
+        <v>1263356025</v>
+      </c>
+      <c r="H12" s="45">
         <f t="shared" si="0"/>
-        <v>1.8086015862685907</v>
-      </c>
-      <c r="I12" s="10">
+        <v>0.92616048454919564</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
-        <v>1451786659.1535234</v>
-      </c>
-      <c r="J12" s="36">
+        <v>1451908724.4926486</v>
+      </c>
+      <c r="J12" s="19">
         <f t="shared" si="2"/>
-        <v>1.0642981147801827</v>
-      </c>
-      <c r="K12" s="39">
+        <v>1.0643876003182207</v>
+      </c>
+      <c r="K12" s="21">
         <f t="shared" si="3"/>
         <v>0.91894518877338416</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="22">
         <f t="shared" si="4"/>
         <v>2.8801023502103349</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="5">
         <v>26457</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="5">
         <v>598056077</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="9">
         <v>464488747</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="17">
         <v>1523623254</v>
       </c>
-      <c r="G13" s="16">
-        <v>2633041084</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G13" s="44">
+        <v>1348313700</v>
+      </c>
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>1.7281444589976047</v>
-      </c>
-      <c r="I13" s="16">
+        <v>0.88493904018611147</v>
+      </c>
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
-        <v>1549451622.2456746</v>
-      </c>
-      <c r="J13" s="37">
+        <v>1549546118.1522157</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" si="2"/>
-        <v>1.0169519388588135</v>
-      </c>
-      <c r="K13" s="43">
+        <v>1.0170139593788425</v>
+      </c>
+      <c r="K13" s="25">
         <f t="shared" si="3"/>
         <v>0.77666420401577163</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="22">
         <f t="shared" si="4"/>
         <v>2.5476260715263996</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="5">
         <v>31762</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="5">
         <v>940513027</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="9">
         <v>557537341</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="17">
         <v>2333687941</v>
       </c>
-      <c r="G14" s="16">
-        <v>3160887708</v>
-      </c>
-      <c r="H14" s="28">
+      <c r="G14" s="44">
+        <v>1618517819</v>
+      </c>
+      <c r="H14" s="14">
         <f t="shared" si="0"/>
-        <v>1.3544603168517637</v>
-      </c>
-      <c r="I14" s="16">
+        <v>0.69354509253985985</v>
+      </c>
+      <c r="I14" s="10">
         <f t="shared" si="1"/>
-        <v>1860070705.56481</v>
-      </c>
-      <c r="J14" s="45">
+        <v>1860077520.2325993</v>
+      </c>
+      <c r="J14" s="27">
         <f t="shared" si="2"/>
-        <v>0.79705202777358397</v>
-      </c>
-      <c r="K14" s="43">
+        <v>0.79705494790170806</v>
+      </c>
+      <c r="K14" s="25">
         <f t="shared" si="3"/>
         <v>0.59280129566987916</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="22">
         <f t="shared" si="4"/>
         <v>2.4812925222778439</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="5">
         <v>29091</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="5">
         <v>563867305</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="7">
         <v>510688558</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="17">
         <v>1602027632</v>
       </c>
-      <c r="G15" s="16">
-        <v>2895123649</v>
-      </c>
-      <c r="H15" s="35">
+      <c r="G15" s="10">
+        <v>1482473484</v>
+      </c>
+      <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>1.8071621182873581</v>
-      </c>
-      <c r="I15" s="16">
+        <v>0.925373229767113</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="1"/>
-        <v>1703677949.3505492</v>
-      </c>
-      <c r="J15" s="37">
+        <v>1703728911.4512379</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" si="2"/>
-        <v>1.0634510387462213</v>
-      </c>
-      <c r="K15" s="41">
+        <v>1.063482849746026</v>
+      </c>
+      <c r="K15" s="23">
         <f t="shared" si="3"/>
         <v>0.90568925254497601</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="22">
         <f t="shared" si="4"/>
         <v>2.8411429742322087</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="5">
         <v>33265</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="5">
         <v>645345237</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="7">
         <v>583899648</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="17">
         <v>1865672034</v>
       </c>
-      <c r="G16" s="16">
-        <v>3310435960</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="G16" s="10">
+        <v>1695071408</v>
+      </c>
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>1.7743933015399427</v>
-      </c>
-      <c r="I16" s="16">
+        <v>0.90855808368728541</v>
+      </c>
+      <c r="I16" s="10">
         <f t="shared" si="1"/>
-        <v>1948074566.6034648</v>
-      </c>
-      <c r="J16" s="37">
+        <v>1948056539.2587874</v>
+      </c>
+      <c r="J16" s="20">
         <f t="shared" si="2"/>
-        <v>1.0441677481903364</v>
-      </c>
-      <c r="K16" s="41">
+        <v>1.0441580855356207</v>
+      </c>
+      <c r="K16" s="23">
         <f t="shared" si="3"/>
         <v>0.90478648407534457</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="22">
         <f t="shared" si="4"/>
         <v>2.8909673877394715</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="5">
         <v>37831</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="5">
         <v>786320195</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="9">
         <v>663986335</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="17">
         <v>2127740816</v>
       </c>
-      <c r="G17" s="16">
-        <v>3764752206</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="G17" s="10">
+        <v>1927635406</v>
+      </c>
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>1.7693659761988605</v>
-      </c>
-      <c r="I17" s="16">
+        <v>0.90595404830547743</v>
+      </c>
+      <c r="I17" s="10">
         <f t="shared" si="1"/>
-        <v>2215423621.1453214</v>
-      </c>
-      <c r="J17" s="37">
+        <v>2215330127.2397294</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" si="2"/>
-        <v>1.0412093449004558</v>
-      </c>
-      <c r="K17" s="41">
+        <v>1.0411654044426291</v>
+      </c>
+      <c r="K17" s="23">
         <f t="shared" si="3"/>
         <v>0.84442233484795592</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="22">
         <f t="shared" si="4"/>
         <v>2.7059470550670519</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="5">
         <v>37616</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="5">
         <v>771876955</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="9">
         <v>660215280</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="17">
         <v>2146904425</v>
       </c>
-      <c r="G18" s="16">
-        <v>3743359741</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="G18" s="10">
+        <v>1916684626</v>
+      </c>
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>1.7436080048137215</v>
-      </c>
-      <c r="I18" s="16">
+        <v>0.89276662886378844</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="1"/>
-        <v>2202834911.5351663</v>
-      </c>
-      <c r="J18" s="37">
+        <v>2202744970.9517388</v>
+      </c>
+      <c r="J18" s="20">
         <f t="shared" si="2"/>
-        <v>1.0260516890663012</v>
-      </c>
-      <c r="K18" s="41">
+        <v>1.0260097959189491</v>
+      </c>
+      <c r="K18" s="23">
         <f t="shared" si="3"/>
         <v>0.85533746761489982</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="22">
         <f t="shared" si="4"/>
         <v>2.7814075949449739</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="5">
         <v>30999</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="5">
         <v>591882569</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="7">
         <v>544154480</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="17">
         <v>1863181214</v>
       </c>
-      <c r="G19" s="16">
-        <v>3084969334</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="G19" s="10">
+        <v>1579655285</v>
+      </c>
+      <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>1.6557537779038598</v>
-      </c>
-      <c r="I19" s="16">
+        <v>0.84782697095184434</v>
+      </c>
+      <c r="I19" s="10">
         <f t="shared" si="1"/>
-        <v>1815395425.5369525</v>
-      </c>
-      <c r="J19" s="37">
+        <v>1815414851.0768542</v>
+      </c>
+      <c r="J19" s="20">
         <f t="shared" si="2"/>
-        <v>0.9743525814322388</v>
-      </c>
-      <c r="K19" s="41">
+        <v>0.97436300743898241</v>
+      </c>
+      <c r="K19" s="23">
         <f t="shared" si="3"/>
         <v>0.9193622324768953</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="22">
         <f t="shared" si="4"/>
         <v>3.1478899896442125</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="5">
         <v>38526</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="5">
         <v>799265405</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="9">
         <v>676176490</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="17">
         <v>2281918791</v>
       </c>
-      <c r="G20" s="16">
-        <v>3833904591</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="G20" s="10">
+        <v>1963034438</v>
+      </c>
+      <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>1.6801231516744191</v>
-      </c>
-      <c r="I20" s="16">
+        <v>0.86025604668417843</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="1"/>
-        <v>2256117355.7670512</v>
-      </c>
-      <c r="J20" s="37">
+        <v>2256012375.4598184</v>
+      </c>
+      <c r="J20" s="20">
         <f t="shared" si="2"/>
-        <v>0.98869309664537108</v>
-      </c>
-      <c r="K20" s="41">
+        <v>0.98864709136786211</v>
+      </c>
+      <c r="K20" s="23">
         <f t="shared" si="3"/>
         <v>0.84599744436580482</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="22">
         <f t="shared" si="4"/>
         <v>2.8550200931066194</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="5">
         <v>40151</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="5">
         <v>966969912</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="9">
         <v>704678652</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="17">
         <v>2390049294</v>
       </c>
-      <c r="G21" s="16">
-        <v>3995591822</v>
-      </c>
-      <c r="H21" s="33">
+      <c r="G21" s="10">
+        <v>2045801957</v>
+      </c>
+      <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>1.6717612611717121</v>
-      </c>
-      <c r="I21" s="16">
+        <v>0.85596642802966394</v>
+      </c>
+      <c r="I21" s="10">
         <f t="shared" si="1"/>
-        <v>2351264576.9371715</v>
-      </c>
-      <c r="J21" s="37">
+        <v>2351132737.8617873</v>
+      </c>
+      <c r="J21" s="20">
         <f t="shared" si="2"/>
-        <v>0.98377241960649342</v>
-      </c>
-      <c r="K21" s="44">
+        <v>0.98371725795116061</v>
+      </c>
+      <c r="K21" s="26">
         <f t="shared" si="3"/>
         <v>0.7287493056971146</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="22">
         <f t="shared" si="4"/>
         <v>2.471689412813912</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="H23" s="25">
+      <c r="H23" s="40">
         <f>AVERAGE(H12:H21)</f>
-        <v>1.6993373953707835</v>
+        <v>0.87013460535645171</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="H24" s="26" t="s">
+      <c r="F24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="H25" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="H25" s="27" t="s">
+    <row r="26" spans="1:12">
+      <c r="H26" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="H26" s="27" t="s">
+    <row r="27" spans="1:12">
+      <c r="H27" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="H27" s="27" t="s">
+    <row r="28" spans="1:12">
+      <c r="H28" s="43" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="H28" s="27" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
